--- a/Local_files/GUI_files/Results/Case_Study_3_substitutions.xlsx
+++ b/Local_files/GUI_files/Results/Case_Study_3_substitutions.xlsx
@@ -3637,6 +3637,9 @@
     <t>S181</t>
   </si>
   <si>
+    <t>S339</t>
+  </si>
+  <si>
     <t>N209</t>
   </si>
   <si>
@@ -4400,9 +4403,6 @@
   </si>
   <si>
     <t>N468</t>
-  </si>
-  <si>
-    <t>S339</t>
   </si>
   <si>
     <t>N470</t>
@@ -7958,7 +7958,7 @@
         <v>209</v>
       </c>
       <c r="B210" t="s">
-        <v>1057</v>
+        <v>1207</v>
       </c>
     </row>
     <row r="211" spans="1:2">
@@ -7966,7 +7966,7 @@
         <v>210</v>
       </c>
       <c r="B211" t="s">
-        <v>1207</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="212" spans="1:2">
@@ -7974,7 +7974,7 @@
         <v>211</v>
       </c>
       <c r="B212" t="s">
-        <v>1208</v>
+        <v>1209</v>
       </c>
     </row>
     <row r="213" spans="1:2">
@@ -7982,7 +7982,7 @@
         <v>212</v>
       </c>
       <c r="B213" t="s">
-        <v>1209</v>
+        <v>1210</v>
       </c>
     </row>
     <row r="214" spans="1:2">
@@ -7990,7 +7990,7 @@
         <v>213</v>
       </c>
       <c r="B214" t="s">
-        <v>1210</v>
+        <v>1211</v>
       </c>
     </row>
     <row r="215" spans="1:2">
@@ -7998,7 +7998,7 @@
         <v>214</v>
       </c>
       <c r="B215" t="s">
-        <v>1211</v>
+        <v>1212</v>
       </c>
     </row>
     <row r="216" spans="1:2">
@@ -8006,7 +8006,7 @@
         <v>215</v>
       </c>
       <c r="B216" t="s">
-        <v>1212</v>
+        <v>1213</v>
       </c>
     </row>
     <row r="217" spans="1:2">
@@ -8014,7 +8014,7 @@
         <v>216</v>
       </c>
       <c r="B217" t="s">
-        <v>1213</v>
+        <v>1214</v>
       </c>
     </row>
     <row r="218" spans="1:2">
@@ -8022,7 +8022,7 @@
         <v>217</v>
       </c>
       <c r="B218" t="s">
-        <v>1214</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="219" spans="1:2">
@@ -8030,7 +8030,7 @@
         <v>218</v>
       </c>
       <c r="B219" t="s">
-        <v>1215</v>
+        <v>1216</v>
       </c>
     </row>
     <row r="220" spans="1:2">
@@ -8038,7 +8038,7 @@
         <v>219</v>
       </c>
       <c r="B220" t="s">
-        <v>1216</v>
+        <v>1217</v>
       </c>
     </row>
     <row r="221" spans="1:2">
@@ -8046,7 +8046,7 @@
         <v>220</v>
       </c>
       <c r="B221" t="s">
-        <v>1217</v>
+        <v>1218</v>
       </c>
     </row>
     <row r="222" spans="1:2">
@@ -8054,7 +8054,7 @@
         <v>221</v>
       </c>
       <c r="B222" t="s">
-        <v>1218</v>
+        <v>1219</v>
       </c>
     </row>
     <row r="223" spans="1:2">
@@ -8062,7 +8062,7 @@
         <v>222</v>
       </c>
       <c r="B223" t="s">
-        <v>1219</v>
+        <v>1220</v>
       </c>
     </row>
     <row r="224" spans="1:2">
@@ -8070,7 +8070,7 @@
         <v>223</v>
       </c>
       <c r="B224" t="s">
-        <v>1220</v>
+        <v>1221</v>
       </c>
     </row>
     <row r="225" spans="1:2">
@@ -8078,7 +8078,7 @@
         <v>224</v>
       </c>
       <c r="B225" t="s">
-        <v>1221</v>
+        <v>1222</v>
       </c>
     </row>
     <row r="226" spans="1:2">
@@ -8086,7 +8086,7 @@
         <v>225</v>
       </c>
       <c r="B226" t="s">
-        <v>1222</v>
+        <v>1223</v>
       </c>
     </row>
     <row r="227" spans="1:2">
@@ -8094,7 +8094,7 @@
         <v>226</v>
       </c>
       <c r="B227" t="s">
-        <v>1223</v>
+        <v>1224</v>
       </c>
     </row>
     <row r="228" spans="1:2">
@@ -8102,7 +8102,7 @@
         <v>227</v>
       </c>
       <c r="B228" t="s">
-        <v>1224</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="229" spans="1:2">
@@ -8110,7 +8110,7 @@
         <v>228</v>
       </c>
       <c r="B229" t="s">
-        <v>1225</v>
+        <v>1226</v>
       </c>
     </row>
     <row r="230" spans="1:2">
@@ -8118,7 +8118,7 @@
         <v>229</v>
       </c>
       <c r="B230" t="s">
-        <v>1226</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="231" spans="1:2">
@@ -8126,7 +8126,7 @@
         <v>230</v>
       </c>
       <c r="B231" t="s">
-        <v>1227</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="232" spans="1:2">
@@ -8134,7 +8134,7 @@
         <v>231</v>
       </c>
       <c r="B232" t="s">
-        <v>1228</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="233" spans="1:2">
@@ -8142,7 +8142,7 @@
         <v>232</v>
       </c>
       <c r="B233" t="s">
-        <v>1229</v>
+        <v>1230</v>
       </c>
     </row>
     <row r="234" spans="1:2">
@@ -8150,7 +8150,7 @@
         <v>233</v>
       </c>
       <c r="B234" t="s">
-        <v>1230</v>
+        <v>1231</v>
       </c>
     </row>
     <row r="235" spans="1:2">
@@ -8158,7 +8158,7 @@
         <v>234</v>
       </c>
       <c r="B235" t="s">
-        <v>1231</v>
+        <v>1232</v>
       </c>
     </row>
     <row r="236" spans="1:2">
@@ -8166,7 +8166,7 @@
         <v>235</v>
       </c>
       <c r="B236" t="s">
-        <v>1232</v>
+        <v>1233</v>
       </c>
     </row>
     <row r="237" spans="1:2">
@@ -8174,7 +8174,7 @@
         <v>236</v>
       </c>
       <c r="B237" t="s">
-        <v>1233</v>
+        <v>1234</v>
       </c>
     </row>
     <row r="238" spans="1:2">
@@ -8182,7 +8182,7 @@
         <v>237</v>
       </c>
       <c r="B238" t="s">
-        <v>1234</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="239" spans="1:2">
@@ -8190,7 +8190,7 @@
         <v>238</v>
       </c>
       <c r="B239" t="s">
-        <v>1235</v>
+        <v>1236</v>
       </c>
     </row>
     <row r="240" spans="1:2">
@@ -8198,7 +8198,7 @@
         <v>239</v>
       </c>
       <c r="B240" t="s">
-        <v>1236</v>
+        <v>1237</v>
       </c>
     </row>
     <row r="241" spans="1:2">
@@ -8214,7 +8214,7 @@
         <v>241</v>
       </c>
       <c r="B242" t="s">
-        <v>1237</v>
+        <v>1238</v>
       </c>
     </row>
     <row r="243" spans="1:2">
@@ -8222,7 +8222,7 @@
         <v>242</v>
       </c>
       <c r="B243" t="s">
-        <v>1238</v>
+        <v>1239</v>
       </c>
     </row>
     <row r="244" spans="1:2">
@@ -8230,7 +8230,7 @@
         <v>243</v>
       </c>
       <c r="B244" t="s">
-        <v>1239</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="245" spans="1:2">
@@ -8238,7 +8238,7 @@
         <v>244</v>
       </c>
       <c r="B245" t="s">
-        <v>1240</v>
+        <v>1241</v>
       </c>
     </row>
     <row r="246" spans="1:2">
@@ -8246,7 +8246,7 @@
         <v>245</v>
       </c>
       <c r="B246" t="s">
-        <v>1241</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="247" spans="1:2">
@@ -8254,7 +8254,7 @@
         <v>246</v>
       </c>
       <c r="B247" t="s">
-        <v>1242</v>
+        <v>1243</v>
       </c>
     </row>
     <row r="248" spans="1:2">
@@ -8262,7 +8262,7 @@
         <v>247</v>
       </c>
       <c r="B248" t="s">
-        <v>1243</v>
+        <v>1244</v>
       </c>
     </row>
     <row r="249" spans="1:2">
@@ -8270,7 +8270,7 @@
         <v>248</v>
       </c>
       <c r="B249" t="s">
-        <v>1244</v>
+        <v>1245</v>
       </c>
     </row>
     <row r="250" spans="1:2">
@@ -8278,7 +8278,7 @@
         <v>249</v>
       </c>
       <c r="B250" t="s">
-        <v>1245</v>
+        <v>1246</v>
       </c>
     </row>
     <row r="251" spans="1:2">
@@ -8286,7 +8286,7 @@
         <v>250</v>
       </c>
       <c r="B251" t="s">
-        <v>1246</v>
+        <v>1247</v>
       </c>
     </row>
     <row r="252" spans="1:2">
@@ -8294,7 +8294,7 @@
         <v>251</v>
       </c>
       <c r="B252" t="s">
-        <v>1247</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="253" spans="1:2">
@@ -8302,7 +8302,7 @@
         <v>252</v>
       </c>
       <c r="B253" t="s">
-        <v>1248</v>
+        <v>1249</v>
       </c>
     </row>
     <row r="254" spans="1:2">
@@ -8310,7 +8310,7 @@
         <v>253</v>
       </c>
       <c r="B254" t="s">
-        <v>1249</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="255" spans="1:2">
@@ -8318,7 +8318,7 @@
         <v>254</v>
       </c>
       <c r="B255" t="s">
-        <v>1250</v>
+        <v>1251</v>
       </c>
     </row>
     <row r="256" spans="1:2">
@@ -8326,7 +8326,7 @@
         <v>255</v>
       </c>
       <c r="B256" t="s">
-        <v>1251</v>
+        <v>1252</v>
       </c>
     </row>
     <row r="257" spans="1:2">
@@ -8334,7 +8334,7 @@
         <v>256</v>
       </c>
       <c r="B257" t="s">
-        <v>1252</v>
+        <v>1253</v>
       </c>
     </row>
     <row r="258" spans="1:2">
@@ -8342,7 +8342,7 @@
         <v>257</v>
       </c>
       <c r="B258" t="s">
-        <v>1253</v>
+        <v>1254</v>
       </c>
     </row>
     <row r="259" spans="1:2">
@@ -8350,7 +8350,7 @@
         <v>258</v>
       </c>
       <c r="B259" t="s">
-        <v>1254</v>
+        <v>1255</v>
       </c>
     </row>
     <row r="260" spans="1:2">
@@ -8358,7 +8358,7 @@
         <v>259</v>
       </c>
       <c r="B260" t="s">
-        <v>1255</v>
+        <v>1256</v>
       </c>
     </row>
     <row r="261" spans="1:2">
@@ -8366,7 +8366,7 @@
         <v>260</v>
       </c>
       <c r="B261" t="s">
-        <v>1256</v>
+        <v>1257</v>
       </c>
     </row>
     <row r="262" spans="1:2">
@@ -8374,7 +8374,7 @@
         <v>261</v>
       </c>
       <c r="B262" t="s">
-        <v>1257</v>
+        <v>1258</v>
       </c>
     </row>
     <row r="263" spans="1:2">
@@ -8382,7 +8382,7 @@
         <v>262</v>
       </c>
       <c r="B263" t="s">
-        <v>1258</v>
+        <v>1259</v>
       </c>
     </row>
     <row r="264" spans="1:2">
@@ -8390,7 +8390,7 @@
         <v>263</v>
       </c>
       <c r="B264" t="s">
-        <v>1259</v>
+        <v>1260</v>
       </c>
     </row>
     <row r="265" spans="1:2">
@@ -8398,7 +8398,7 @@
         <v>264</v>
       </c>
       <c r="B265" t="s">
-        <v>1260</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="266" spans="1:2">
@@ -8406,7 +8406,7 @@
         <v>265</v>
       </c>
       <c r="B266" t="s">
-        <v>1261</v>
+        <v>1262</v>
       </c>
     </row>
     <row r="267" spans="1:2">
@@ -8414,7 +8414,7 @@
         <v>266</v>
       </c>
       <c r="B267" t="s">
-        <v>1262</v>
+        <v>1263</v>
       </c>
     </row>
     <row r="268" spans="1:2">
@@ -8422,7 +8422,7 @@
         <v>267</v>
       </c>
       <c r="B268" t="s">
-        <v>1263</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="269" spans="1:2">
@@ -8430,7 +8430,7 @@
         <v>268</v>
       </c>
       <c r="B269" t="s">
-        <v>1264</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="270" spans="1:2">
@@ -8438,7 +8438,7 @@
         <v>269</v>
       </c>
       <c r="B270" t="s">
-        <v>1265</v>
+        <v>1266</v>
       </c>
     </row>
     <row r="271" spans="1:2">
@@ -8446,7 +8446,7 @@
         <v>270</v>
       </c>
       <c r="B271" t="s">
-        <v>1266</v>
+        <v>1267</v>
       </c>
     </row>
     <row r="272" spans="1:2">
@@ -8454,7 +8454,7 @@
         <v>271</v>
       </c>
       <c r="B272" t="s">
-        <v>1267</v>
+        <v>1268</v>
       </c>
     </row>
     <row r="273" spans="1:2">
@@ -8462,7 +8462,7 @@
         <v>272</v>
       </c>
       <c r="B273" t="s">
-        <v>1268</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="274" spans="1:2">
@@ -8470,7 +8470,7 @@
         <v>273</v>
       </c>
       <c r="B274" t="s">
-        <v>1269</v>
+        <v>1270</v>
       </c>
     </row>
     <row r="275" spans="1:2">
@@ -8478,7 +8478,7 @@
         <v>274</v>
       </c>
       <c r="B275" t="s">
-        <v>1270</v>
+        <v>1271</v>
       </c>
     </row>
     <row r="276" spans="1:2">
@@ -8486,7 +8486,7 @@
         <v>275</v>
       </c>
       <c r="B276" t="s">
-        <v>1271</v>
+        <v>1272</v>
       </c>
     </row>
     <row r="277" spans="1:2">
@@ -8494,7 +8494,7 @@
         <v>276</v>
       </c>
       <c r="B277" t="s">
-        <v>1272</v>
+        <v>1273</v>
       </c>
     </row>
     <row r="278" spans="1:2">
@@ -8502,7 +8502,7 @@
         <v>277</v>
       </c>
       <c r="B278" t="s">
-        <v>1273</v>
+        <v>1274</v>
       </c>
     </row>
     <row r="279" spans="1:2">
@@ -8510,7 +8510,7 @@
         <v>278</v>
       </c>
       <c r="B279" t="s">
-        <v>1274</v>
+        <v>1275</v>
       </c>
     </row>
     <row r="280" spans="1:2">
@@ -8518,7 +8518,7 @@
         <v>279</v>
       </c>
       <c r="B280" t="s">
-        <v>1275</v>
+        <v>1276</v>
       </c>
     </row>
     <row r="281" spans="1:2">
@@ -8526,7 +8526,7 @@
         <v>280</v>
       </c>
       <c r="B281" t="s">
-        <v>1276</v>
+        <v>1277</v>
       </c>
     </row>
     <row r="282" spans="1:2">
@@ -8534,7 +8534,7 @@
         <v>281</v>
       </c>
       <c r="B282" t="s">
-        <v>1277</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="283" spans="1:2">
@@ -8542,7 +8542,7 @@
         <v>282</v>
       </c>
       <c r="B283" t="s">
-        <v>1278</v>
+        <v>1279</v>
       </c>
     </row>
     <row r="284" spans="1:2">
@@ -8550,7 +8550,7 @@
         <v>283</v>
       </c>
       <c r="B284" t="s">
-        <v>1279</v>
+        <v>1280</v>
       </c>
     </row>
     <row r="285" spans="1:2">
@@ -8558,7 +8558,7 @@
         <v>284</v>
       </c>
       <c r="B285" t="s">
-        <v>1280</v>
+        <v>1281</v>
       </c>
     </row>
     <row r="286" spans="1:2">
@@ -8566,7 +8566,7 @@
         <v>285</v>
       </c>
       <c r="B286" t="s">
-        <v>1281</v>
+        <v>1282</v>
       </c>
     </row>
     <row r="287" spans="1:2">
@@ -8574,7 +8574,7 @@
         <v>286</v>
       </c>
       <c r="B287" t="s">
-        <v>1282</v>
+        <v>1283</v>
       </c>
     </row>
     <row r="288" spans="1:2">
@@ -8582,7 +8582,7 @@
         <v>287</v>
       </c>
       <c r="B288" t="s">
-        <v>1283</v>
+        <v>1284</v>
       </c>
     </row>
     <row r="289" spans="1:2">
@@ -8590,7 +8590,7 @@
         <v>288</v>
       </c>
       <c r="B289" t="s">
-        <v>1284</v>
+        <v>1285</v>
       </c>
     </row>
     <row r="290" spans="1:2">
@@ -8598,7 +8598,7 @@
         <v>289</v>
       </c>
       <c r="B290" t="s">
-        <v>1285</v>
+        <v>1286</v>
       </c>
     </row>
     <row r="291" spans="1:2">
@@ -8606,7 +8606,7 @@
         <v>290</v>
       </c>
       <c r="B291" t="s">
-        <v>1286</v>
+        <v>1287</v>
       </c>
     </row>
     <row r="292" spans="1:2">
@@ -8614,7 +8614,7 @@
         <v>291</v>
       </c>
       <c r="B292" t="s">
-        <v>1287</v>
+        <v>1288</v>
       </c>
     </row>
     <row r="293" spans="1:2">
@@ -8622,7 +8622,7 @@
         <v>292</v>
       </c>
       <c r="B293" t="s">
-        <v>1288</v>
+        <v>1289</v>
       </c>
     </row>
     <row r="294" spans="1:2">
@@ -8630,7 +8630,7 @@
         <v>293</v>
       </c>
       <c r="B294" t="s">
-        <v>1289</v>
+        <v>1290</v>
       </c>
     </row>
     <row r="295" spans="1:2">
@@ -8638,7 +8638,7 @@
         <v>294</v>
       </c>
       <c r="B295" t="s">
-        <v>1290</v>
+        <v>1291</v>
       </c>
     </row>
     <row r="296" spans="1:2">
@@ -8646,7 +8646,7 @@
         <v>295</v>
       </c>
       <c r="B296" t="s">
-        <v>1291</v>
+        <v>1292</v>
       </c>
     </row>
     <row r="297" spans="1:2">
@@ -8654,7 +8654,7 @@
         <v>296</v>
       </c>
       <c r="B297" t="s">
-        <v>1292</v>
+        <v>1293</v>
       </c>
     </row>
     <row r="298" spans="1:2">
@@ -8662,7 +8662,7 @@
         <v>297</v>
       </c>
       <c r="B298" t="s">
-        <v>1293</v>
+        <v>1294</v>
       </c>
     </row>
     <row r="299" spans="1:2">
@@ -8670,7 +8670,7 @@
         <v>298</v>
       </c>
       <c r="B299" t="s">
-        <v>1294</v>
+        <v>1295</v>
       </c>
     </row>
     <row r="300" spans="1:2">
@@ -8678,7 +8678,7 @@
         <v>299</v>
       </c>
       <c r="B300" t="s">
-        <v>1295</v>
+        <v>1296</v>
       </c>
     </row>
     <row r="301" spans="1:2">
@@ -8686,7 +8686,7 @@
         <v>300</v>
       </c>
       <c r="B301" t="s">
-        <v>1296</v>
+        <v>1297</v>
       </c>
     </row>
     <row r="302" spans="1:2">
@@ -8694,7 +8694,7 @@
         <v>301</v>
       </c>
       <c r="B302" t="s">
-        <v>1297</v>
+        <v>1298</v>
       </c>
     </row>
     <row r="303" spans="1:2">
@@ -8702,7 +8702,7 @@
         <v>302</v>
       </c>
       <c r="B303" t="s">
-        <v>1298</v>
+        <v>1299</v>
       </c>
     </row>
     <row r="304" spans="1:2">
@@ -8710,7 +8710,7 @@
         <v>303</v>
       </c>
       <c r="B304" t="s">
-        <v>1299</v>
+        <v>1300</v>
       </c>
     </row>
     <row r="305" spans="1:2">
@@ -8718,7 +8718,7 @@
         <v>304</v>
       </c>
       <c r="B305" t="s">
-        <v>1300</v>
+        <v>1301</v>
       </c>
     </row>
     <row r="306" spans="1:2">
@@ -8726,7 +8726,7 @@
         <v>305</v>
       </c>
       <c r="B306" t="s">
-        <v>1301</v>
+        <v>1302</v>
       </c>
     </row>
     <row r="307" spans="1:2">
@@ -8734,7 +8734,7 @@
         <v>306</v>
       </c>
       <c r="B307" t="s">
-        <v>1302</v>
+        <v>1303</v>
       </c>
     </row>
     <row r="308" spans="1:2">
@@ -8742,7 +8742,7 @@
         <v>307</v>
       </c>
       <c r="B308" t="s">
-        <v>1303</v>
+        <v>1304</v>
       </c>
     </row>
     <row r="309" spans="1:2">
@@ -8750,7 +8750,7 @@
         <v>308</v>
       </c>
       <c r="B309" t="s">
-        <v>1304</v>
+        <v>1305</v>
       </c>
     </row>
     <row r="310" spans="1:2">
@@ -8758,7 +8758,7 @@
         <v>309</v>
       </c>
       <c r="B310" t="s">
-        <v>1305</v>
+        <v>1306</v>
       </c>
     </row>
     <row r="311" spans="1:2">
@@ -8766,7 +8766,7 @@
         <v>310</v>
       </c>
       <c r="B311" t="s">
-        <v>1306</v>
+        <v>1307</v>
       </c>
     </row>
     <row r="312" spans="1:2">
@@ -8774,7 +8774,7 @@
         <v>311</v>
       </c>
       <c r="B312" t="s">
-        <v>1307</v>
+        <v>1308</v>
       </c>
     </row>
     <row r="313" spans="1:2">
@@ -8782,7 +8782,7 @@
         <v>312</v>
       </c>
       <c r="B313" t="s">
-        <v>1308</v>
+        <v>1309</v>
       </c>
     </row>
     <row r="314" spans="1:2">
@@ -8790,7 +8790,7 @@
         <v>313</v>
       </c>
       <c r="B314" t="s">
-        <v>1309</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="315" spans="1:2">
@@ -8798,7 +8798,7 @@
         <v>314</v>
       </c>
       <c r="B315" t="s">
-        <v>1310</v>
+        <v>1311</v>
       </c>
     </row>
     <row r="316" spans="1:2">
@@ -8806,7 +8806,7 @@
         <v>315</v>
       </c>
       <c r="B316" t="s">
-        <v>1311</v>
+        <v>1312</v>
       </c>
     </row>
     <row r="317" spans="1:2">
@@ -8814,7 +8814,7 @@
         <v>316</v>
       </c>
       <c r="B317" t="s">
-        <v>1312</v>
+        <v>1313</v>
       </c>
     </row>
     <row r="318" spans="1:2">
@@ -8822,7 +8822,7 @@
         <v>317</v>
       </c>
       <c r="B318" t="s">
-        <v>1313</v>
+        <v>1314</v>
       </c>
     </row>
     <row r="319" spans="1:2">
@@ -8830,7 +8830,7 @@
         <v>318</v>
       </c>
       <c r="B319" t="s">
-        <v>1314</v>
+        <v>1315</v>
       </c>
     </row>
     <row r="320" spans="1:2">
@@ -8838,7 +8838,7 @@
         <v>319</v>
       </c>
       <c r="B320" t="s">
-        <v>1315</v>
+        <v>1316</v>
       </c>
     </row>
     <row r="321" spans="1:2">
@@ -8846,7 +8846,7 @@
         <v>320</v>
       </c>
       <c r="B321" t="s">
-        <v>1316</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="322" spans="1:2">
@@ -8854,7 +8854,7 @@
         <v>321</v>
       </c>
       <c r="B322" t="s">
-        <v>1317</v>
+        <v>1318</v>
       </c>
     </row>
     <row r="323" spans="1:2">
@@ -8862,7 +8862,7 @@
         <v>322</v>
       </c>
       <c r="B323" t="s">
-        <v>1318</v>
+        <v>1319</v>
       </c>
     </row>
     <row r="324" spans="1:2">
@@ -8870,7 +8870,7 @@
         <v>323</v>
       </c>
       <c r="B324" t="s">
-        <v>1319</v>
+        <v>1320</v>
       </c>
     </row>
     <row r="325" spans="1:2">
@@ -8878,7 +8878,7 @@
         <v>324</v>
       </c>
       <c r="B325" t="s">
-        <v>1320</v>
+        <v>1321</v>
       </c>
     </row>
     <row r="326" spans="1:2">
@@ -8886,7 +8886,7 @@
         <v>325</v>
       </c>
       <c r="B326" t="s">
-        <v>1321</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="327" spans="1:2">
@@ -8894,7 +8894,7 @@
         <v>326</v>
       </c>
       <c r="B327" t="s">
-        <v>1322</v>
+        <v>1323</v>
       </c>
     </row>
     <row r="328" spans="1:2">
@@ -8902,7 +8902,7 @@
         <v>327</v>
       </c>
       <c r="B328" t="s">
-        <v>1323</v>
+        <v>1324</v>
       </c>
     </row>
     <row r="329" spans="1:2">
@@ -8910,7 +8910,7 @@
         <v>328</v>
       </c>
       <c r="B329" t="s">
-        <v>1324</v>
+        <v>1325</v>
       </c>
     </row>
     <row r="330" spans="1:2">
@@ -8918,7 +8918,7 @@
         <v>329</v>
       </c>
       <c r="B330" t="s">
-        <v>1325</v>
+        <v>1326</v>
       </c>
     </row>
     <row r="331" spans="1:2">
@@ -8926,7 +8926,7 @@
         <v>330</v>
       </c>
       <c r="B331" t="s">
-        <v>1326</v>
+        <v>1327</v>
       </c>
     </row>
     <row r="332" spans="1:2">
@@ -8934,7 +8934,7 @@
         <v>331</v>
       </c>
       <c r="B332" t="s">
-        <v>1327</v>
+        <v>1328</v>
       </c>
     </row>
     <row r="333" spans="1:2">
@@ -8942,7 +8942,7 @@
         <v>332</v>
       </c>
       <c r="B333" t="s">
-        <v>1328</v>
+        <v>1329</v>
       </c>
     </row>
     <row r="334" spans="1:2">
@@ -8950,7 +8950,7 @@
         <v>333</v>
       </c>
       <c r="B334" t="s">
-        <v>1329</v>
+        <v>1330</v>
       </c>
     </row>
     <row r="335" spans="1:2">
@@ -8958,7 +8958,7 @@
         <v>334</v>
       </c>
       <c r="B335" t="s">
-        <v>1330</v>
+        <v>1331</v>
       </c>
     </row>
     <row r="336" spans="1:2">
@@ -8966,7 +8966,7 @@
         <v>335</v>
       </c>
       <c r="B336" t="s">
-        <v>1331</v>
+        <v>1332</v>
       </c>
     </row>
     <row r="337" spans="1:2">
@@ -8974,7 +8974,7 @@
         <v>336</v>
       </c>
       <c r="B337" t="s">
-        <v>1332</v>
+        <v>1333</v>
       </c>
     </row>
     <row r="338" spans="1:2">
@@ -8982,7 +8982,7 @@
         <v>337</v>
       </c>
       <c r="B338" t="s">
-        <v>1333</v>
+        <v>1334</v>
       </c>
     </row>
     <row r="339" spans="1:2">
@@ -8990,7 +8990,7 @@
         <v>338</v>
       </c>
       <c r="B339" t="s">
-        <v>1334</v>
+        <v>1335</v>
       </c>
     </row>
     <row r="340" spans="1:2">
@@ -8998,7 +8998,7 @@
         <v>339</v>
       </c>
       <c r="B340" t="s">
-        <v>1335</v>
+        <v>1336</v>
       </c>
     </row>
     <row r="341" spans="1:2">
@@ -9006,7 +9006,7 @@
         <v>340</v>
       </c>
       <c r="B341" t="s">
-        <v>1336</v>
+        <v>1337</v>
       </c>
     </row>
     <row r="342" spans="1:2">
@@ -9014,7 +9014,7 @@
         <v>341</v>
       </c>
       <c r="B342" t="s">
-        <v>1337</v>
+        <v>1338</v>
       </c>
     </row>
     <row r="343" spans="1:2">
@@ -9022,7 +9022,7 @@
         <v>342</v>
       </c>
       <c r="B343" t="s">
-        <v>1338</v>
+        <v>1339</v>
       </c>
     </row>
     <row r="344" spans="1:2">
@@ -9030,7 +9030,7 @@
         <v>343</v>
       </c>
       <c r="B344" t="s">
-        <v>1339</v>
+        <v>1340</v>
       </c>
     </row>
     <row r="345" spans="1:2">
@@ -9038,7 +9038,7 @@
         <v>344</v>
       </c>
       <c r="B345" t="s">
-        <v>1340</v>
+        <v>1341</v>
       </c>
     </row>
     <row r="346" spans="1:2">
@@ -9046,7 +9046,7 @@
         <v>345</v>
       </c>
       <c r="B346" t="s">
-        <v>1341</v>
+        <v>1342</v>
       </c>
     </row>
     <row r="347" spans="1:2">
@@ -9054,7 +9054,7 @@
         <v>346</v>
       </c>
       <c r="B347" t="s">
-        <v>1342</v>
+        <v>1343</v>
       </c>
     </row>
     <row r="348" spans="1:2">
@@ -9062,7 +9062,7 @@
         <v>347</v>
       </c>
       <c r="B348" t="s">
-        <v>1343</v>
+        <v>1344</v>
       </c>
     </row>
     <row r="349" spans="1:2">
@@ -9070,7 +9070,7 @@
         <v>348</v>
       </c>
       <c r="B349" t="s">
-        <v>1344</v>
+        <v>1345</v>
       </c>
     </row>
     <row r="350" spans="1:2">
@@ -9078,7 +9078,7 @@
         <v>349</v>
       </c>
       <c r="B350" t="s">
-        <v>1345</v>
+        <v>1346</v>
       </c>
     </row>
     <row r="351" spans="1:2">
@@ -9086,7 +9086,7 @@
         <v>350</v>
       </c>
       <c r="B351" t="s">
-        <v>1346</v>
+        <v>1347</v>
       </c>
     </row>
     <row r="352" spans="1:2">
@@ -9094,7 +9094,7 @@
         <v>351</v>
       </c>
       <c r="B352" t="s">
-        <v>1347</v>
+        <v>1348</v>
       </c>
     </row>
     <row r="353" spans="1:2">
@@ -9102,7 +9102,7 @@
         <v>352</v>
       </c>
       <c r="B353" t="s">
-        <v>1348</v>
+        <v>1349</v>
       </c>
     </row>
     <row r="354" spans="1:2">
@@ -9110,7 +9110,7 @@
         <v>353</v>
       </c>
       <c r="B354" t="s">
-        <v>1349</v>
+        <v>1350</v>
       </c>
     </row>
     <row r="355" spans="1:2">
@@ -9118,7 +9118,7 @@
         <v>354</v>
       </c>
       <c r="B355" t="s">
-        <v>1350</v>
+        <v>1351</v>
       </c>
     </row>
     <row r="356" spans="1:2">
@@ -9126,7 +9126,7 @@
         <v>355</v>
       </c>
       <c r="B356" t="s">
-        <v>1351</v>
+        <v>1352</v>
       </c>
     </row>
     <row r="357" spans="1:2">
@@ -9134,7 +9134,7 @@
         <v>356</v>
       </c>
       <c r="B357" t="s">
-        <v>1352</v>
+        <v>1353</v>
       </c>
     </row>
     <row r="358" spans="1:2">
@@ -9142,7 +9142,7 @@
         <v>357</v>
       </c>
       <c r="B358" t="s">
-        <v>1353</v>
+        <v>1354</v>
       </c>
     </row>
     <row r="359" spans="1:2">
@@ -9150,7 +9150,7 @@
         <v>358</v>
       </c>
       <c r="B359" t="s">
-        <v>1354</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="360" spans="1:2">
@@ -9158,7 +9158,7 @@
         <v>359</v>
       </c>
       <c r="B360" t="s">
-        <v>1355</v>
+        <v>1356</v>
       </c>
     </row>
     <row r="361" spans="1:2">
@@ -9166,7 +9166,7 @@
         <v>360</v>
       </c>
       <c r="B361" t="s">
-        <v>1356</v>
+        <v>1357</v>
       </c>
     </row>
     <row r="362" spans="1:2">
@@ -9174,7 +9174,7 @@
         <v>361</v>
       </c>
       <c r="B362" t="s">
-        <v>1357</v>
+        <v>1358</v>
       </c>
     </row>
     <row r="363" spans="1:2">
@@ -9182,7 +9182,7 @@
         <v>362</v>
       </c>
       <c r="B363" t="s">
-        <v>1339</v>
+        <v>1340</v>
       </c>
     </row>
     <row r="364" spans="1:2">
@@ -9190,7 +9190,7 @@
         <v>363</v>
       </c>
       <c r="B364" t="s">
-        <v>1358</v>
+        <v>1359</v>
       </c>
     </row>
     <row r="365" spans="1:2">
@@ -9198,7 +9198,7 @@
         <v>364</v>
       </c>
       <c r="B365" t="s">
-        <v>1359</v>
+        <v>1360</v>
       </c>
     </row>
     <row r="366" spans="1:2">
@@ -9206,7 +9206,7 @@
         <v>365</v>
       </c>
       <c r="B366" t="s">
-        <v>1360</v>
+        <v>1361</v>
       </c>
     </row>
     <row r="367" spans="1:2">
@@ -9214,7 +9214,7 @@
         <v>366</v>
       </c>
       <c r="B367" t="s">
-        <v>1361</v>
+        <v>1362</v>
       </c>
     </row>
     <row r="368" spans="1:2">
@@ -9222,7 +9222,7 @@
         <v>367</v>
       </c>
       <c r="B368" t="s">
-        <v>1362</v>
+        <v>1363</v>
       </c>
     </row>
     <row r="369" spans="1:2">
@@ -9230,7 +9230,7 @@
         <v>368</v>
       </c>
       <c r="B369" t="s">
-        <v>1363</v>
+        <v>1364</v>
       </c>
     </row>
     <row r="370" spans="1:2">
@@ -9238,7 +9238,7 @@
         <v>369</v>
       </c>
       <c r="B370" t="s">
-        <v>1364</v>
+        <v>1365</v>
       </c>
     </row>
     <row r="371" spans="1:2">
@@ -9246,7 +9246,7 @@
         <v>370</v>
       </c>
       <c r="B371" t="s">
-        <v>1365</v>
+        <v>1366</v>
       </c>
     </row>
     <row r="372" spans="1:2">
@@ -9254,7 +9254,7 @@
         <v>371</v>
       </c>
       <c r="B372" t="s">
-        <v>1366</v>
+        <v>1367</v>
       </c>
     </row>
     <row r="373" spans="1:2">
@@ -9262,7 +9262,7 @@
         <v>372</v>
       </c>
       <c r="B373" t="s">
-        <v>1367</v>
+        <v>1368</v>
       </c>
     </row>
     <row r="374" spans="1:2">
@@ -9270,7 +9270,7 @@
         <v>373</v>
       </c>
       <c r="B374" t="s">
-        <v>1368</v>
+        <v>1369</v>
       </c>
     </row>
     <row r="375" spans="1:2">
@@ -9278,7 +9278,7 @@
         <v>374</v>
       </c>
       <c r="B375" t="s">
-        <v>1369</v>
+        <v>1370</v>
       </c>
     </row>
     <row r="376" spans="1:2">
@@ -9286,7 +9286,7 @@
         <v>375</v>
       </c>
       <c r="B376" t="s">
-        <v>1370</v>
+        <v>1371</v>
       </c>
     </row>
     <row r="377" spans="1:2">
@@ -9294,7 +9294,7 @@
         <v>376</v>
       </c>
       <c r="B377" t="s">
-        <v>1371</v>
+        <v>1372</v>
       </c>
     </row>
     <row r="378" spans="1:2">
@@ -9310,7 +9310,7 @@
         <v>378</v>
       </c>
       <c r="B379" t="s">
-        <v>1372</v>
+        <v>1373</v>
       </c>
     </row>
     <row r="380" spans="1:2">
@@ -9318,7 +9318,7 @@
         <v>379</v>
       </c>
       <c r="B380" t="s">
-        <v>1373</v>
+        <v>1374</v>
       </c>
     </row>
     <row r="381" spans="1:2">
@@ -9326,7 +9326,7 @@
         <v>380</v>
       </c>
       <c r="B381" t="s">
-        <v>1374</v>
+        <v>1375</v>
       </c>
     </row>
     <row r="382" spans="1:2">
@@ -9334,7 +9334,7 @@
         <v>381</v>
       </c>
       <c r="B382" t="s">
-        <v>1375</v>
+        <v>1376</v>
       </c>
     </row>
     <row r="383" spans="1:2">
@@ -9342,7 +9342,7 @@
         <v>382</v>
       </c>
       <c r="B383" t="s">
-        <v>1376</v>
+        <v>1377</v>
       </c>
     </row>
     <row r="384" spans="1:2">
@@ -9350,7 +9350,7 @@
         <v>383</v>
       </c>
       <c r="B384" t="s">
-        <v>1377</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="385" spans="1:2">
@@ -9358,7 +9358,7 @@
         <v>384</v>
       </c>
       <c r="B385" t="s">
-        <v>1378</v>
+        <v>1379</v>
       </c>
     </row>
     <row r="386" spans="1:2">
@@ -9366,7 +9366,7 @@
         <v>385</v>
       </c>
       <c r="B386" t="s">
-        <v>1379</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="387" spans="1:2">
@@ -9374,7 +9374,7 @@
         <v>386</v>
       </c>
       <c r="B387" t="s">
-        <v>1380</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="388" spans="1:2">
@@ -9382,7 +9382,7 @@
         <v>387</v>
       </c>
       <c r="B388" t="s">
-        <v>1381</v>
+        <v>1382</v>
       </c>
     </row>
     <row r="389" spans="1:2">
@@ -9398,7 +9398,7 @@
         <v>389</v>
       </c>
       <c r="B390" t="s">
-        <v>1382</v>
+        <v>1383</v>
       </c>
     </row>
     <row r="391" spans="1:2">
@@ -9406,7 +9406,7 @@
         <v>390</v>
       </c>
       <c r="B391" t="s">
-        <v>1283</v>
+        <v>1284</v>
       </c>
     </row>
     <row r="392" spans="1:2">
@@ -9414,7 +9414,7 @@
         <v>391</v>
       </c>
       <c r="B392" t="s">
-        <v>1383</v>
+        <v>1384</v>
       </c>
     </row>
     <row r="393" spans="1:2">
@@ -9422,7 +9422,7 @@
         <v>392</v>
       </c>
       <c r="B393" t="s">
-        <v>1384</v>
+        <v>1385</v>
       </c>
     </row>
     <row r="394" spans="1:2">
@@ -9430,7 +9430,7 @@
         <v>393</v>
       </c>
       <c r="B394" t="s">
-        <v>1385</v>
+        <v>1386</v>
       </c>
     </row>
     <row r="395" spans="1:2">
@@ -9438,7 +9438,7 @@
         <v>394</v>
       </c>
       <c r="B395" t="s">
-        <v>1386</v>
+        <v>1387</v>
       </c>
     </row>
     <row r="396" spans="1:2">
@@ -9446,7 +9446,7 @@
         <v>395</v>
       </c>
       <c r="B396" t="s">
-        <v>1387</v>
+        <v>1388</v>
       </c>
     </row>
     <row r="397" spans="1:2">
@@ -9454,7 +9454,7 @@
         <v>396</v>
       </c>
       <c r="B397" t="s">
-        <v>1388</v>
+        <v>1389</v>
       </c>
     </row>
     <row r="398" spans="1:2">
@@ -9462,7 +9462,7 @@
         <v>397</v>
       </c>
       <c r="B398" t="s">
-        <v>1389</v>
+        <v>1390</v>
       </c>
     </row>
     <row r="399" spans="1:2">
@@ -9470,7 +9470,7 @@
         <v>398</v>
       </c>
       <c r="B399" t="s">
-        <v>1390</v>
+        <v>1391</v>
       </c>
     </row>
     <row r="400" spans="1:2">
@@ -9478,7 +9478,7 @@
         <v>399</v>
       </c>
       <c r="B400" t="s">
-        <v>1391</v>
+        <v>1392</v>
       </c>
     </row>
     <row r="401" spans="1:2">
@@ -9486,7 +9486,7 @@
         <v>400</v>
       </c>
       <c r="B401" t="s">
-        <v>1392</v>
+        <v>1393</v>
       </c>
     </row>
     <row r="402" spans="1:2">
@@ -9494,7 +9494,7 @@
         <v>401</v>
       </c>
       <c r="B402" t="s">
-        <v>1393</v>
+        <v>1394</v>
       </c>
     </row>
     <row r="403" spans="1:2">
@@ -9502,7 +9502,7 @@
         <v>402</v>
       </c>
       <c r="B403" t="s">
-        <v>1394</v>
+        <v>1395</v>
       </c>
     </row>
     <row r="404" spans="1:2">
@@ -9510,7 +9510,7 @@
         <v>403</v>
       </c>
       <c r="B404" t="s">
-        <v>1395</v>
+        <v>1396</v>
       </c>
     </row>
     <row r="405" spans="1:2">
@@ -9518,7 +9518,7 @@
         <v>404</v>
       </c>
       <c r="B405" t="s">
-        <v>1396</v>
+        <v>1397</v>
       </c>
     </row>
     <row r="406" spans="1:2">
@@ -9526,7 +9526,7 @@
         <v>405</v>
       </c>
       <c r="B406" t="s">
-        <v>1397</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="407" spans="1:2">
@@ -9534,7 +9534,7 @@
         <v>406</v>
       </c>
       <c r="B407" t="s">
-        <v>1398</v>
+        <v>1399</v>
       </c>
     </row>
     <row r="408" spans="1:2">
@@ -9542,7 +9542,7 @@
         <v>407</v>
       </c>
       <c r="B408" t="s">
-        <v>1399</v>
+        <v>1400</v>
       </c>
     </row>
     <row r="409" spans="1:2">
@@ -9550,7 +9550,7 @@
         <v>408</v>
       </c>
       <c r="B409" t="s">
-        <v>1400</v>
+        <v>1401</v>
       </c>
     </row>
     <row r="410" spans="1:2">
@@ -9558,7 +9558,7 @@
         <v>409</v>
       </c>
       <c r="B410" t="s">
-        <v>1401</v>
+        <v>1402</v>
       </c>
     </row>
     <row r="411" spans="1:2">
@@ -9566,7 +9566,7 @@
         <v>410</v>
       </c>
       <c r="B411" t="s">
-        <v>1402</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="412" spans="1:2">
@@ -9574,7 +9574,7 @@
         <v>411</v>
       </c>
       <c r="B412" t="s">
-        <v>1403</v>
+        <v>1404</v>
       </c>
     </row>
     <row r="413" spans="1:2">
@@ -9582,7 +9582,7 @@
         <v>412</v>
       </c>
       <c r="B413" t="s">
-        <v>1404</v>
+        <v>1405</v>
       </c>
     </row>
     <row r="414" spans="1:2">
@@ -9590,7 +9590,7 @@
         <v>413</v>
       </c>
       <c r="B414" t="s">
-        <v>1405</v>
+        <v>1406</v>
       </c>
     </row>
     <row r="415" spans="1:2">
@@ -9598,7 +9598,7 @@
         <v>414</v>
       </c>
       <c r="B415" t="s">
-        <v>1406</v>
+        <v>1407</v>
       </c>
     </row>
     <row r="416" spans="1:2">
@@ -9606,7 +9606,7 @@
         <v>415</v>
       </c>
       <c r="B416" t="s">
-        <v>1407</v>
+        <v>1408</v>
       </c>
     </row>
     <row r="417" spans="1:2">
@@ -9614,7 +9614,7 @@
         <v>416</v>
       </c>
       <c r="B417" t="s">
-        <v>1408</v>
+        <v>1409</v>
       </c>
     </row>
     <row r="418" spans="1:2">
@@ -9622,7 +9622,7 @@
         <v>417</v>
       </c>
       <c r="B418" t="s">
-        <v>1409</v>
+        <v>1410</v>
       </c>
     </row>
     <row r="419" spans="1:2">
@@ -9630,7 +9630,7 @@
         <v>418</v>
       </c>
       <c r="B419" t="s">
-        <v>1410</v>
+        <v>1411</v>
       </c>
     </row>
     <row r="420" spans="1:2">
@@ -9638,7 +9638,7 @@
         <v>419</v>
       </c>
       <c r="B420" t="s">
-        <v>1411</v>
+        <v>1412</v>
       </c>
     </row>
     <row r="421" spans="1:2">
@@ -9646,7 +9646,7 @@
         <v>420</v>
       </c>
       <c r="B421" t="s">
-        <v>1412</v>
+        <v>1413</v>
       </c>
     </row>
     <row r="422" spans="1:2">
@@ -9654,7 +9654,7 @@
         <v>421</v>
       </c>
       <c r="B422" t="s">
-        <v>1413</v>
+        <v>1414</v>
       </c>
     </row>
     <row r="423" spans="1:2">
@@ -9662,7 +9662,7 @@
         <v>422</v>
       </c>
       <c r="B423" t="s">
-        <v>1414</v>
+        <v>1415</v>
       </c>
     </row>
     <row r="424" spans="1:2">
@@ -9670,7 +9670,7 @@
         <v>423</v>
       </c>
       <c r="B424" t="s">
-        <v>1415</v>
+        <v>1416</v>
       </c>
     </row>
     <row r="425" spans="1:2">
@@ -9678,7 +9678,7 @@
         <v>424</v>
       </c>
       <c r="B425" t="s">
-        <v>1416</v>
+        <v>1417</v>
       </c>
     </row>
     <row r="426" spans="1:2">
@@ -9686,7 +9686,7 @@
         <v>425</v>
       </c>
       <c r="B426" t="s">
-        <v>1417</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="427" spans="1:2">
@@ -9694,7 +9694,7 @@
         <v>426</v>
       </c>
       <c r="B427" t="s">
-        <v>1418</v>
+        <v>1419</v>
       </c>
     </row>
     <row r="428" spans="1:2">
@@ -9702,7 +9702,7 @@
         <v>427</v>
       </c>
       <c r="B428" t="s">
-        <v>1419</v>
+        <v>1420</v>
       </c>
     </row>
     <row r="429" spans="1:2">
@@ -9710,7 +9710,7 @@
         <v>428</v>
       </c>
       <c r="B429" t="s">
-        <v>1420</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="430" spans="1:2">
@@ -9718,7 +9718,7 @@
         <v>429</v>
       </c>
       <c r="B430" t="s">
-        <v>1421</v>
+        <v>1422</v>
       </c>
     </row>
     <row r="431" spans="1:2">
@@ -9726,7 +9726,7 @@
         <v>430</v>
       </c>
       <c r="B431" t="s">
-        <v>1422</v>
+        <v>1423</v>
       </c>
     </row>
     <row r="432" spans="1:2">
@@ -9734,7 +9734,7 @@
         <v>431</v>
       </c>
       <c r="B432" t="s">
-        <v>1423</v>
+        <v>1424</v>
       </c>
     </row>
     <row r="433" spans="1:2">
@@ -9742,7 +9742,7 @@
         <v>432</v>
       </c>
       <c r="B433" t="s">
-        <v>1424</v>
+        <v>1425</v>
       </c>
     </row>
     <row r="434" spans="1:2">
@@ -9750,7 +9750,7 @@
         <v>433</v>
       </c>
       <c r="B434" t="s">
-        <v>1425</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="435" spans="1:2">
@@ -9758,7 +9758,7 @@
         <v>434</v>
       </c>
       <c r="B435" t="s">
-        <v>1426</v>
+        <v>1427</v>
       </c>
     </row>
     <row r="436" spans="1:2">
@@ -9766,7 +9766,7 @@
         <v>435</v>
       </c>
       <c r="B436" t="s">
-        <v>1427</v>
+        <v>1428</v>
       </c>
     </row>
     <row r="437" spans="1:2">
@@ -9774,7 +9774,7 @@
         <v>436</v>
       </c>
       <c r="B437" t="s">
-        <v>1428</v>
+        <v>1429</v>
       </c>
     </row>
     <row r="438" spans="1:2">
@@ -9782,7 +9782,7 @@
         <v>437</v>
       </c>
       <c r="B438" t="s">
-        <v>1429</v>
+        <v>1430</v>
       </c>
     </row>
     <row r="439" spans="1:2">
@@ -9790,7 +9790,7 @@
         <v>438</v>
       </c>
       <c r="B439" t="s">
-        <v>1430</v>
+        <v>1431</v>
       </c>
     </row>
     <row r="440" spans="1:2">
@@ -9798,7 +9798,7 @@
         <v>439</v>
       </c>
       <c r="B440" t="s">
-        <v>1431</v>
+        <v>1432</v>
       </c>
     </row>
     <row r="441" spans="1:2">
@@ -9806,7 +9806,7 @@
         <v>440</v>
       </c>
       <c r="B441" t="s">
-        <v>1432</v>
+        <v>1433</v>
       </c>
     </row>
     <row r="442" spans="1:2">
@@ -9814,7 +9814,7 @@
         <v>441</v>
       </c>
       <c r="B442" t="s">
-        <v>1433</v>
+        <v>1434</v>
       </c>
     </row>
     <row r="443" spans="1:2">
@@ -9822,7 +9822,7 @@
         <v>442</v>
       </c>
       <c r="B443" t="s">
-        <v>1434</v>
+        <v>1435</v>
       </c>
     </row>
     <row r="444" spans="1:2">
@@ -9830,7 +9830,7 @@
         <v>443</v>
       </c>
       <c r="B444" t="s">
-        <v>1435</v>
+        <v>1436</v>
       </c>
     </row>
     <row r="445" spans="1:2">
@@ -9838,7 +9838,7 @@
         <v>444</v>
       </c>
       <c r="B445" t="s">
-        <v>1436</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="446" spans="1:2">
@@ -9846,7 +9846,7 @@
         <v>445</v>
       </c>
       <c r="B446" t="s">
-        <v>1437</v>
+        <v>1438</v>
       </c>
     </row>
     <row r="447" spans="1:2">
@@ -9854,7 +9854,7 @@
         <v>446</v>
       </c>
       <c r="B447" t="s">
-        <v>1438</v>
+        <v>1439</v>
       </c>
     </row>
     <row r="448" spans="1:2">
@@ -9862,7 +9862,7 @@
         <v>447</v>
       </c>
       <c r="B448" t="s">
-        <v>1439</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="449" spans="1:2">
@@ -9870,7 +9870,7 @@
         <v>448</v>
       </c>
       <c r="B449" t="s">
-        <v>1440</v>
+        <v>1441</v>
       </c>
     </row>
     <row r="450" spans="1:2">
@@ -9878,7 +9878,7 @@
         <v>449</v>
       </c>
       <c r="B450" t="s">
-        <v>1441</v>
+        <v>1442</v>
       </c>
     </row>
     <row r="451" spans="1:2">
@@ -9886,7 +9886,7 @@
         <v>450</v>
       </c>
       <c r="B451" t="s">
-        <v>1442</v>
+        <v>1443</v>
       </c>
     </row>
     <row r="452" spans="1:2">
@@ -9894,7 +9894,7 @@
         <v>451</v>
       </c>
       <c r="B452" t="s">
-        <v>1443</v>
+        <v>1444</v>
       </c>
     </row>
     <row r="453" spans="1:2">
@@ -9902,7 +9902,7 @@
         <v>452</v>
       </c>
       <c r="B453" t="s">
-        <v>1444</v>
+        <v>1445</v>
       </c>
     </row>
     <row r="454" spans="1:2">
@@ -9910,7 +9910,7 @@
         <v>453</v>
       </c>
       <c r="B454" t="s">
-        <v>1445</v>
+        <v>1446</v>
       </c>
     </row>
     <row r="455" spans="1:2">
@@ -9918,7 +9918,7 @@
         <v>454</v>
       </c>
       <c r="B455" t="s">
-        <v>1446</v>
+        <v>1447</v>
       </c>
     </row>
     <row r="456" spans="1:2">
@@ -9926,7 +9926,7 @@
         <v>455</v>
       </c>
       <c r="B456" t="s">
-        <v>1447</v>
+        <v>1448</v>
       </c>
     </row>
     <row r="457" spans="1:2">
@@ -9934,7 +9934,7 @@
         <v>456</v>
       </c>
       <c r="B457" t="s">
-        <v>1448</v>
+        <v>1449</v>
       </c>
     </row>
     <row r="458" spans="1:2">
@@ -9942,7 +9942,7 @@
         <v>457</v>
       </c>
       <c r="B458" t="s">
-        <v>1449</v>
+        <v>1450</v>
       </c>
     </row>
     <row r="459" spans="1:2">
@@ -9950,7 +9950,7 @@
         <v>458</v>
       </c>
       <c r="B459" t="s">
-        <v>1450</v>
+        <v>1451</v>
       </c>
     </row>
     <row r="460" spans="1:2">
@@ -9958,7 +9958,7 @@
         <v>459</v>
       </c>
       <c r="B460" t="s">
-        <v>1451</v>
+        <v>1452</v>
       </c>
     </row>
     <row r="461" spans="1:2">
@@ -9966,7 +9966,7 @@
         <v>460</v>
       </c>
       <c r="B461" t="s">
-        <v>1452</v>
+        <v>1453</v>
       </c>
     </row>
     <row r="462" spans="1:2">
@@ -9974,7 +9974,7 @@
         <v>461</v>
       </c>
       <c r="B462" t="s">
-        <v>1453</v>
+        <v>1454</v>
       </c>
     </row>
     <row r="463" spans="1:2">
@@ -9982,7 +9982,7 @@
         <v>462</v>
       </c>
       <c r="B463" t="s">
-        <v>1454</v>
+        <v>1455</v>
       </c>
     </row>
     <row r="464" spans="1:2">
@@ -9990,7 +9990,7 @@
         <v>463</v>
       </c>
       <c r="B464" t="s">
-        <v>1455</v>
+        <v>1456</v>
       </c>
     </row>
     <row r="465" spans="1:2">
@@ -9998,7 +9998,7 @@
         <v>464</v>
       </c>
       <c r="B465" t="s">
-        <v>1456</v>
+        <v>1457</v>
       </c>
     </row>
     <row r="466" spans="1:2">
@@ -10006,7 +10006,7 @@
         <v>465</v>
       </c>
       <c r="B466" t="s">
-        <v>1457</v>
+        <v>1458</v>
       </c>
     </row>
     <row r="467" spans="1:2">
@@ -10014,7 +10014,7 @@
         <v>466</v>
       </c>
       <c r="B467" t="s">
-        <v>1458</v>
+        <v>1459</v>
       </c>
     </row>
     <row r="468" spans="1:2">
@@ -10022,7 +10022,7 @@
         <v>467</v>
       </c>
       <c r="B468" t="s">
-        <v>1459</v>
+        <v>1460</v>
       </c>
     </row>
     <row r="469" spans="1:2">
@@ -10030,7 +10030,7 @@
         <v>468</v>
       </c>
       <c r="B469" t="s">
-        <v>1460</v>
+        <v>1461</v>
       </c>
     </row>
     <row r="470" spans="1:2">
@@ -10038,7 +10038,7 @@
         <v>469</v>
       </c>
       <c r="B470" t="s">
-        <v>1461</v>
+        <v>1462</v>
       </c>
     </row>
     <row r="471" spans="1:2">
@@ -10046,7 +10046,7 @@
         <v>470</v>
       </c>
       <c r="B471" t="s">
-        <v>1462</v>
+        <v>1207</v>
       </c>
     </row>
     <row r="472" spans="1:2">
@@ -10430,7 +10430,7 @@
         <v>518</v>
       </c>
       <c r="B519" t="s">
-        <v>1333</v>
+        <v>1334</v>
       </c>
     </row>
     <row r="520" spans="1:2">
@@ -10902,7 +10902,7 @@
         <v>577</v>
       </c>
       <c r="B578" t="s">
-        <v>1283</v>
+        <v>1284</v>
       </c>
     </row>
     <row r="579" spans="1:2">
@@ -10990,7 +10990,7 @@
         <v>588</v>
       </c>
       <c r="B589" t="s">
-        <v>1306</v>
+        <v>1307</v>
       </c>
     </row>
     <row r="590" spans="1:2">
@@ -11118,7 +11118,7 @@
         <v>604</v>
       </c>
       <c r="B605" t="s">
-        <v>1308</v>
+        <v>1309</v>
       </c>
     </row>
     <row r="606" spans="1:2">
@@ -11254,7 +11254,7 @@
         <v>621</v>
       </c>
       <c r="B622" t="s">
-        <v>1378</v>
+        <v>1379</v>
       </c>
     </row>
     <row r="623" spans="1:2">
@@ -11262,7 +11262,7 @@
         <v>622</v>
       </c>
       <c r="B623" t="s">
-        <v>1411</v>
+        <v>1412</v>
       </c>
     </row>
     <row r="624" spans="1:2">
@@ -11526,7 +11526,7 @@
         <v>655</v>
       </c>
       <c r="B656" t="s">
-        <v>1253</v>
+        <v>1254</v>
       </c>
     </row>
     <row r="657" spans="1:2">
@@ -12702,7 +12702,7 @@
         <v>802</v>
       </c>
       <c r="B803" t="s">
-        <v>1462</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="804" spans="1:2">
@@ -12998,7 +12998,7 @@
         <v>839</v>
       </c>
       <c r="B840" t="s">
-        <v>1213</v>
+        <v>1214</v>
       </c>
     </row>
     <row r="841" spans="1:2">
@@ -13118,7 +13118,7 @@
         <v>854</v>
       </c>
       <c r="B855" t="s">
-        <v>1259</v>
+        <v>1260</v>
       </c>
     </row>
     <row r="856" spans="1:2">
@@ -13142,7 +13142,7 @@
         <v>857</v>
       </c>
       <c r="B858" t="s">
-        <v>1252</v>
+        <v>1253</v>
       </c>
     </row>
     <row r="859" spans="1:2">
@@ -13918,7 +13918,7 @@
         <v>954</v>
       </c>
       <c r="B955" t="s">
-        <v>1242</v>
+        <v>1243</v>
       </c>
     </row>
     <row r="956" spans="1:2">
